--- a/プログラム構成表_Python(高宮).xlsx
+++ b/プログラム構成表_Python(高宮).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python2_src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\RSFukuokaTS6600\6D\08_財津\20231225_Python個人作品発表\05_高宮綾子_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DE019-7519-4160-8041-032921859223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92517BD-1A6B-4807-94E5-B6F3AF205EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="255" windowWidth="10425" windowHeight="10125" xr2:uid="{D828BD0B-1C51-4ED2-B8FF-BFC8516BE7C8}"/>
+    <workbookView xWindow="4260" yWindow="480" windowWidth="16065" windowHeight="10125" xr2:uid="{D828BD0B-1C51-4ED2-B8FF-BFC8516BE7C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,22 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選んだ色の図形を描画</t>
-    <rPh sb="0" eb="1">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ズケイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Choose_a_spiral_color</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,6 +396,22 @@
       <t>ズケイ</t>
     </rPh>
     <rPh sb="128" eb="130">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選んだ色で図形を描画</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>ビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1198,6 +1198,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1277,9 +1280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1608,7 +1608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F9AAAF-7FDF-4D1E-BFB2-32BC8CA439B7}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1625,18 +1627,18 @@
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1646,124 +1648,124 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
+      <c r="B6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1803,7 +1805,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -1823,13 +1825,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="61" t="s">
         <v>58</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
